--- a/Excel/3.xlsx
+++ b/Excel/3.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Yuan Zhang\Documents\School\Spring 19\Mobile Computing\Project\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryprouty/Desktop/MUC-Project/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE0E224E-1D4A-405B-9A19-AC3760F6452B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18045" yWindow="2730" windowWidth="18735" windowHeight="11910" xr2:uid="{EA6BBBD3-FA6B-4F98-A2A0-2F5F46AC2314}"/>
+    <workbookView xWindow="13400" yWindow="460" windowWidth="18740" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="18">
   <si>
     <t>Valence</t>
   </si>
@@ -36,64 +38,55 @@
     <t>Specific Behvaior</t>
   </si>
   <si>
-    <t>eating</t>
-  </si>
-  <si>
-    <t>look at phone</t>
-  </si>
-  <si>
-    <t>talking</t>
-  </si>
-  <si>
-    <t>check phone</t>
-  </si>
-  <si>
-    <t>eyes closed</t>
-  </si>
-  <si>
-    <t>nodded off</t>
-  </si>
-  <si>
-    <t>raised hand</t>
-  </si>
-  <si>
-    <t>doodling</t>
-  </si>
-  <si>
     <t>Seconds</t>
   </si>
   <si>
     <t xml:space="preserve">Class Activity </t>
   </si>
   <si>
-    <t>Class start 13:33</t>
+    <t>Lecture</t>
   </si>
   <si>
-    <t>question from prof</t>
+    <t>Q &amp; A</t>
   </si>
   <si>
-    <t>phone of person went off behind</t>
+    <t>Other</t>
   </si>
   <si>
-    <t>prof question funny</t>
+    <t>Laughing</t>
   </si>
   <si>
-    <t>professor question</t>
+    <t>Joke</t>
   </si>
   <si>
-    <t>prof joke</t>
+    <t>Break</t>
   </si>
   <si>
-    <t>break</t>
+    <t>Listening</t>
   </si>
   <si>
-    <t>class starts again</t>
+    <t>Drinking water</t>
+  </si>
+  <si>
+    <t>Checking phone</t>
+  </si>
+  <si>
+    <t>Chatting</t>
+  </si>
+  <si>
+    <t>Falling asleep</t>
+  </si>
+  <si>
+    <t>Raised hand</t>
+  </si>
+  <si>
+    <t>Doodling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,27 +432,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F54CBCF-7107-4152-9055-3856E3B0A050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E417"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="C417" sqref="C417"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -471,12 +464,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -485,10 +481,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>10</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
       <c r="D3">
         <v>3</v>
       </c>
@@ -496,10 +498,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>20</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
       <c r="D4">
         <v>3</v>
       </c>
@@ -507,10 +515,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>30</v>
       </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
       <c r="D5">
         <v>3</v>
       </c>
@@ -518,10 +532,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>40</v>
       </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
       <c r="D6">
         <v>3</v>
       </c>
@@ -529,12 +549,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>50</v>
       </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -543,10 +566,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>60</v>
       </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
       <c r="D8">
         <v>3</v>
       </c>
@@ -554,10 +583,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>70</v>
       </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
       <c r="D9">
         <v>3</v>
       </c>
@@ -565,10 +600,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>80</v>
       </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
       <c r="D10">
         <v>3</v>
       </c>
@@ -576,10 +617,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>90</v>
       </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
       <c r="D11">
         <v>3</v>
       </c>
@@ -587,10 +634,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>100</v>
       </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
       <c r="D12">
         <v>3</v>
       </c>
@@ -598,10 +651,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>110</v>
       </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
       <c r="D13">
         <v>3</v>
       </c>
@@ -609,10 +668,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>120</v>
       </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
       <c r="D14">
         <v>3</v>
       </c>
@@ -620,10 +685,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>130</v>
       </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
       <c r="D15">
         <v>3</v>
       </c>
@@ -631,10 +702,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>140</v>
       </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
       <c r="D16">
         <v>4</v>
       </c>
@@ -642,10 +719,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>150</v>
       </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
       <c r="D17">
         <v>3</v>
       </c>
@@ -653,10 +736,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>160</v>
       </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
       <c r="D18">
         <v>3</v>
       </c>
@@ -664,10 +753,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>170</v>
       </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
       <c r="D19">
         <v>3</v>
       </c>
@@ -675,10 +770,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>180</v>
       </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
       <c r="D20">
         <v>3</v>
       </c>
@@ -686,10 +787,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>190</v>
       </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
       <c r="D21">
         <v>4</v>
       </c>
@@ -697,10 +804,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>200</v>
       </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
       <c r="D22">
         <v>3</v>
       </c>
@@ -708,10 +821,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>210</v>
       </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
       <c r="D23">
         <v>3</v>
       </c>
@@ -719,10 +838,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>220</v>
       </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
       <c r="D24">
         <v>3</v>
       </c>
@@ -730,10 +855,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>230</v>
       </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
       <c r="D25">
         <v>3</v>
       </c>
@@ -741,10 +872,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>240</v>
       </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
       <c r="D26">
         <v>3</v>
       </c>
@@ -752,10 +889,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>250</v>
       </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
       <c r="D27">
         <v>3</v>
       </c>
@@ -763,10 +906,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>260</v>
       </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
       <c r="D28">
         <v>3</v>
       </c>
@@ -774,10 +923,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>270</v>
       </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
       <c r="D29">
         <v>3</v>
       </c>
@@ -785,10 +940,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>280</v>
       </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
       <c r="D30">
         <v>4</v>
       </c>
@@ -796,12 +957,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>290</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -810,10 +974,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>300</v>
       </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
       <c r="D32">
         <v>3</v>
       </c>
@@ -821,10 +991,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>310</v>
       </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
       <c r="D33">
         <v>3</v>
       </c>
@@ -832,10 +1008,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>320</v>
       </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
       <c r="D34">
         <v>3</v>
       </c>
@@ -843,12 +1025,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>330</v>
       </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -857,10 +1042,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>340</v>
       </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
       <c r="D36">
         <v>3</v>
       </c>
@@ -868,10 +1059,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>350</v>
       </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
       <c r="D37">
         <v>3</v>
       </c>
@@ -879,12 +1076,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>360</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -893,10 +1093,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>370</v>
       </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
       <c r="D39">
         <v>3</v>
       </c>
@@ -904,10 +1110,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>380</v>
       </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
       <c r="D40">
         <v>3</v>
       </c>
@@ -915,10 +1127,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>390</v>
       </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
       <c r="D41">
         <v>4</v>
       </c>
@@ -926,10 +1144,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>400</v>
       </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
       <c r="D42">
         <v>3</v>
       </c>
@@ -937,10 +1161,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>410</v>
       </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
       <c r="D43">
         <v>3</v>
       </c>
@@ -948,10 +1178,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>420</v>
       </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
       <c r="D44">
         <v>3</v>
       </c>
@@ -959,10 +1195,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>430</v>
       </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
       <c r="D45">
         <v>3</v>
       </c>
@@ -970,10 +1212,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>440</v>
       </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
       <c r="D46">
         <v>3</v>
       </c>
@@ -981,10 +1229,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>450</v>
       </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
       <c r="D47">
         <v>3</v>
       </c>
@@ -992,10 +1246,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>460</v>
       </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
       <c r="D48">
         <v>3</v>
       </c>
@@ -1003,10 +1263,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>470</v>
       </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
       <c r="D49">
         <v>3</v>
       </c>
@@ -1014,10 +1280,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>480</v>
       </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
       <c r="D50">
         <v>3</v>
       </c>
@@ -1025,10 +1297,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>490</v>
       </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
       <c r="D51">
         <v>3</v>
       </c>
@@ -1036,10 +1314,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>500</v>
       </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
       <c r="D52">
         <v>3</v>
       </c>
@@ -1047,10 +1331,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>510</v>
       </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
       <c r="D53">
         <v>3</v>
       </c>
@@ -1058,10 +1348,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>520</v>
       </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
       <c r="D54">
         <v>3</v>
       </c>
@@ -1069,10 +1365,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>530</v>
       </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
       <c r="D55">
         <v>3</v>
       </c>
@@ -1080,10 +1382,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>540</v>
       </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
       <c r="D56">
         <v>3</v>
       </c>
@@ -1091,10 +1399,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>550</v>
       </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
       <c r="D57">
         <v>3</v>
       </c>
@@ -1102,10 +1416,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>560</v>
       </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
       <c r="D58">
         <v>3</v>
       </c>
@@ -1113,10 +1433,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>570</v>
       </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
       <c r="D59">
         <v>3</v>
       </c>
@@ -1124,10 +1450,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>580</v>
       </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
       <c r="D60">
         <v>3</v>
       </c>
@@ -1135,10 +1467,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>590</v>
       </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
       <c r="D61">
         <v>3</v>
       </c>
@@ -1146,10 +1484,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>600</v>
       </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
       <c r="D62">
         <v>3</v>
       </c>
@@ -1157,10 +1501,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>610</v>
       </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
       <c r="D63">
         <v>3</v>
       </c>
@@ -1168,12 +1518,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>620</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -1182,10 +1535,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>630</v>
       </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
       <c r="D65">
         <v>4</v>
       </c>
@@ -1193,10 +1552,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>640</v>
       </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
       <c r="D66">
         <v>3</v>
       </c>
@@ -1204,10 +1569,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>650</v>
       </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
       <c r="D67">
         <v>3</v>
       </c>
@@ -1215,10 +1586,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>660</v>
       </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
       <c r="D68">
         <v>3</v>
       </c>
@@ -1226,10 +1603,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>670</v>
       </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
       <c r="D69">
         <v>3</v>
       </c>
@@ -1237,10 +1620,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>680</v>
       </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
       <c r="D70">
         <v>3</v>
       </c>
@@ -1248,10 +1637,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>690</v>
       </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
       <c r="D71">
         <v>3</v>
       </c>
@@ -1259,10 +1654,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>700</v>
       </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
       <c r="D72">
         <v>3</v>
       </c>
@@ -1270,10 +1671,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>710</v>
       </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
       <c r="D73">
         <v>3</v>
       </c>
@@ -1281,10 +1688,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>720</v>
       </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
       <c r="D74">
         <v>3</v>
       </c>
@@ -1292,10 +1705,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>730</v>
       </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
       <c r="D75">
         <v>3</v>
       </c>
@@ -1303,10 +1722,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>740</v>
       </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
       <c r="D76">
         <v>3</v>
       </c>
@@ -1314,10 +1739,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>750</v>
       </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
       <c r="D77">
         <v>3</v>
       </c>
@@ -1325,10 +1756,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>760</v>
       </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
       <c r="D78">
         <v>3</v>
       </c>
@@ -1336,10 +1773,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>770</v>
       </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
       <c r="D79">
         <v>3</v>
       </c>
@@ -1347,10 +1790,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>780</v>
       </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
       <c r="D80">
         <v>3</v>
       </c>
@@ -1358,10 +1807,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>790</v>
       </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
       <c r="D81">
         <v>3</v>
       </c>
@@ -1369,10 +1824,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>800</v>
       </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
       <c r="D82">
         <v>3</v>
       </c>
@@ -1380,10 +1841,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>810</v>
       </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
       <c r="D83">
         <v>3</v>
       </c>
@@ -1391,10 +1858,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>820</v>
       </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
       <c r="D84">
         <v>3</v>
       </c>
@@ -1402,10 +1875,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>830</v>
       </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
       <c r="D85">
         <v>3</v>
       </c>
@@ -1413,10 +1892,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>840</v>
       </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
       <c r="D86">
         <v>3</v>
       </c>
@@ -1424,10 +1909,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>850</v>
       </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
       <c r="D87">
         <v>3</v>
       </c>
@@ -1435,10 +1926,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>860</v>
       </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
       <c r="D88">
         <v>3</v>
       </c>
@@ -1446,10 +1943,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>870</v>
       </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
       <c r="D89">
         <v>3</v>
       </c>
@@ -1457,10 +1960,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>880</v>
       </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
       <c r="D90">
         <v>3</v>
       </c>
@@ -1468,10 +1977,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>890</v>
       </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
       <c r="D91">
         <v>3</v>
       </c>
@@ -1479,10 +1994,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>900</v>
       </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
       <c r="D92">
         <v>3</v>
       </c>
@@ -1490,10 +2011,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>910</v>
       </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
       <c r="D93">
         <v>3</v>
       </c>
@@ -1501,10 +2028,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>920</v>
       </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
       <c r="D94">
         <v>3</v>
       </c>
@@ -1512,10 +2045,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>930</v>
       </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
       <c r="D95">
         <v>3</v>
       </c>
@@ -1523,10 +2062,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>940</v>
       </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
       <c r="D96">
         <v>3</v>
       </c>
@@ -1534,10 +2079,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>950</v>
       </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
       <c r="D97">
         <v>3</v>
       </c>
@@ -1545,10 +2096,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>960</v>
       </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
       <c r="D98">
         <v>3</v>
       </c>
@@ -1556,10 +2113,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>970</v>
       </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
       <c r="D99">
         <v>3</v>
       </c>
@@ -1567,10 +2130,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>980</v>
       </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
       <c r="D100">
         <v>3</v>
       </c>
@@ -1578,10 +2147,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>990</v>
       </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
       <c r="D101">
         <v>3</v>
       </c>
@@ -1589,10 +2164,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>1000</v>
       </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
       <c r="D102">
         <v>3</v>
       </c>
@@ -1600,10 +2181,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>1010</v>
       </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
       <c r="D103">
         <v>3</v>
       </c>
@@ -1611,10 +2198,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>1020</v>
       </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
       <c r="D104">
         <v>3</v>
       </c>
@@ -1622,10 +2215,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>1030</v>
       </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
       <c r="D105">
         <v>3</v>
       </c>
@@ -1633,10 +2232,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>1040</v>
       </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
       <c r="D106">
         <v>3</v>
       </c>
@@ -1644,10 +2249,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>1050</v>
       </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
       <c r="D107">
         <v>3</v>
       </c>
@@ -1655,12 +2266,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>1060</v>
       </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D108">
         <v>3</v>
@@ -1669,10 +2283,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>1070</v>
       </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
       <c r="D109">
         <v>3</v>
       </c>
@@ -1680,10 +2300,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>1080</v>
       </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
       <c r="D110">
         <v>3</v>
       </c>
@@ -1691,10 +2317,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>1090</v>
       </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
       <c r="D111">
         <v>3</v>
       </c>
@@ -1702,10 +2334,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>1100</v>
       </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
       <c r="D112">
         <v>2</v>
       </c>
@@ -1713,10 +2351,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>1110</v>
       </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
       <c r="D113">
         <v>3</v>
       </c>
@@ -1724,10 +2368,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>1120</v>
       </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
       <c r="D114">
         <v>3</v>
       </c>
@@ -1735,10 +2385,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>1130</v>
       </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
       <c r="D115">
         <v>3</v>
       </c>
@@ -1746,10 +2402,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>1140</v>
       </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
       <c r="D116">
         <v>3</v>
       </c>
@@ -1757,10 +2419,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>1150</v>
       </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
       <c r="D117">
         <v>4</v>
       </c>
@@ -1768,10 +2436,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>1160</v>
       </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
       <c r="D118">
         <v>3</v>
       </c>
@@ -1779,10 +2453,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>1170</v>
       </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
       <c r="D119">
         <v>2</v>
       </c>
@@ -1790,10 +2470,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>1180</v>
       </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
       <c r="D120">
         <v>2</v>
       </c>
@@ -1801,10 +2487,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>1190</v>
       </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
       <c r="D121">
         <v>3</v>
       </c>
@@ -1812,10 +2504,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>1200</v>
       </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
       <c r="D122">
         <v>3</v>
       </c>
@@ -1823,10 +2521,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>1210</v>
       </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
       <c r="D123">
         <v>3</v>
       </c>
@@ -1834,10 +2538,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>1220</v>
       </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
       <c r="D124">
         <v>3</v>
       </c>
@@ -1845,10 +2555,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>1230</v>
       </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
       <c r="D125">
         <v>3</v>
       </c>
@@ -1856,10 +2572,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>1240</v>
       </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
       <c r="D126">
         <v>3</v>
       </c>
@@ -1867,10 +2589,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>1250</v>
       </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
       <c r="D127">
         <v>3</v>
       </c>
@@ -1878,10 +2606,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>1260</v>
       </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
       <c r="D128">
         <v>3</v>
       </c>
@@ -1889,10 +2623,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>1270</v>
       </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
       <c r="D129">
         <v>3</v>
       </c>
@@ -1900,10 +2640,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>1280</v>
       </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
       <c r="D130">
         <v>3</v>
       </c>
@@ -1911,10 +2657,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>1290</v>
       </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
       <c r="D131">
         <v>3</v>
       </c>
@@ -1922,10 +2674,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>1300</v>
       </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
       <c r="D132">
         <v>3</v>
       </c>
@@ -1933,10 +2691,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>1310</v>
       </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
       <c r="D133">
         <v>3</v>
       </c>
@@ -1944,10 +2708,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>1320</v>
       </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
       <c r="D134">
         <v>3</v>
       </c>
@@ -1955,10 +2725,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>1330</v>
       </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
       <c r="D135">
         <v>3</v>
       </c>
@@ -1966,10 +2742,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>1340</v>
       </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
       <c r="D136">
         <v>3</v>
       </c>
@@ -1977,10 +2759,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>1350</v>
       </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
       <c r="D137">
         <v>3</v>
       </c>
@@ -1988,10 +2776,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>1360</v>
       </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
       <c r="D138">
         <v>3</v>
       </c>
@@ -1999,10 +2793,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>1370</v>
       </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
       <c r="D139">
         <v>3</v>
       </c>
@@ -2010,10 +2810,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>1380</v>
       </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
       <c r="D140">
         <v>3</v>
       </c>
@@ -2021,10 +2827,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>1390</v>
       </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
       <c r="D141">
         <v>3</v>
       </c>
@@ -2032,10 +2844,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>1400</v>
       </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
       <c r="D142">
         <v>3</v>
       </c>
@@ -2043,10 +2861,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1410</v>
       </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
       <c r="D143">
         <v>3</v>
       </c>
@@ -2054,10 +2878,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>1420</v>
       </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
       <c r="D144">
         <v>3</v>
       </c>
@@ -2065,10 +2895,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>1430</v>
       </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
       <c r="D145">
         <v>3</v>
       </c>
@@ -2076,10 +2912,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>1440</v>
       </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
       <c r="D146">
         <v>3</v>
       </c>
@@ -2087,12 +2929,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>1450</v>
       </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
       <c r="C147" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D147">
         <v>3</v>
@@ -2101,12 +2946,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>1460</v>
       </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D148">
         <v>3</v>
@@ -2115,10 +2963,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>1470</v>
       </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
       <c r="D149">
         <v>3</v>
       </c>
@@ -2126,10 +2980,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>1480</v>
       </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
       <c r="D150">
         <v>3</v>
       </c>
@@ -2137,10 +2997,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>1490</v>
       </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
       <c r="D151">
         <v>3</v>
       </c>
@@ -2148,10 +3014,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>1500</v>
       </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
       <c r="D152">
         <v>3</v>
       </c>
@@ -2159,10 +3031,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>1510</v>
       </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
       <c r="D153">
         <v>3</v>
       </c>
@@ -2170,10 +3048,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>1520</v>
       </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
       <c r="D154">
         <v>3</v>
       </c>
@@ -2181,10 +3065,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>1530</v>
       </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
       <c r="D155">
         <v>3</v>
       </c>
@@ -2192,10 +3082,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>1540</v>
       </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
       <c r="D156">
         <v>3</v>
       </c>
@@ -2203,10 +3099,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>1550</v>
       </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
       <c r="D157">
         <v>3</v>
       </c>
@@ -2214,10 +3116,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>1560</v>
       </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
       <c r="D158">
         <v>3</v>
       </c>
@@ -2225,10 +3133,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>1570</v>
       </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
       <c r="D159">
         <v>3</v>
       </c>
@@ -2236,10 +3150,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>1580</v>
       </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
       <c r="D160">
         <v>3</v>
       </c>
@@ -2247,10 +3167,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>1590</v>
       </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
       <c r="D161">
         <v>3</v>
       </c>
@@ -2258,10 +3184,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>1600</v>
       </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
       <c r="D162">
         <v>3</v>
       </c>
@@ -2269,10 +3201,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>1610</v>
       </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
       <c r="D163">
         <v>3</v>
       </c>
@@ -2280,10 +3218,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>1620</v>
       </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
       <c r="D164">
         <v>3</v>
       </c>
@@ -2291,10 +3235,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>1630</v>
       </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
       <c r="D165">
         <v>2</v>
       </c>
@@ -2302,10 +3252,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>1640</v>
       </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>11</v>
+      </c>
       <c r="D166">
         <v>3</v>
       </c>
@@ -2313,12 +3269,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>1650</v>
       </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D167">
         <v>3</v>
@@ -2327,12 +3286,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>1660</v>
       </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -2341,10 +3303,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1670</v>
       </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
       <c r="D169">
         <v>3</v>
       </c>
@@ -2352,10 +3320,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1680</v>
       </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
       <c r="D170">
         <v>3</v>
       </c>
@@ -2363,10 +3337,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>1690</v>
       </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
       <c r="D171">
         <v>3</v>
       </c>
@@ -2374,10 +3354,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>1700</v>
       </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
       <c r="D172">
         <v>3</v>
       </c>
@@ -2385,10 +3371,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>1710</v>
       </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
       <c r="D173">
         <v>3</v>
       </c>
@@ -2396,10 +3388,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>1720</v>
       </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
       <c r="D174">
         <v>3</v>
       </c>
@@ -2407,10 +3405,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>1730</v>
       </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
       <c r="D175">
         <v>3</v>
       </c>
@@ -2418,12 +3422,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>1740</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
       </c>
       <c r="D176">
         <v>3</v>
@@ -2432,12 +3439,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>1750</v>
       </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D177">
         <v>3</v>
@@ -2446,10 +3456,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>1760</v>
       </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
       <c r="D178">
         <v>3</v>
       </c>
@@ -2457,10 +3473,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>1770</v>
       </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
       <c r="D179">
         <v>3</v>
       </c>
@@ -2468,10 +3490,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>1780</v>
       </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>11</v>
+      </c>
       <c r="D180">
         <v>3</v>
       </c>
@@ -2479,10 +3507,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>1790</v>
       </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>11</v>
+      </c>
       <c r="D181">
         <v>2</v>
       </c>
@@ -2490,10 +3524,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>1800</v>
       </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>11</v>
+      </c>
       <c r="D182">
         <v>3</v>
       </c>
@@ -2501,10 +3541,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>1810</v>
       </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>11</v>
+      </c>
       <c r="D183">
         <v>3</v>
       </c>
@@ -2512,10 +3558,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>1820</v>
       </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>11</v>
+      </c>
       <c r="D184">
         <v>3</v>
       </c>
@@ -2523,10 +3575,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>1830</v>
       </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>11</v>
+      </c>
       <c r="D185">
         <v>3</v>
       </c>
@@ -2534,10 +3592,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>1840</v>
       </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>11</v>
+      </c>
       <c r="D186">
         <v>3</v>
       </c>
@@ -2545,10 +3609,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>1850</v>
       </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>11</v>
+      </c>
       <c r="D187">
         <v>3</v>
       </c>
@@ -2556,10 +3626,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>1860</v>
       </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>11</v>
+      </c>
       <c r="D188">
         <v>3</v>
       </c>
@@ -2567,10 +3643,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>1870</v>
       </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>11</v>
+      </c>
       <c r="D189">
         <v>3</v>
       </c>
@@ -2578,10 +3660,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>1880</v>
       </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>11</v>
+      </c>
       <c r="D190">
         <v>3</v>
       </c>
@@ -2589,10 +3677,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>1890</v>
       </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>11</v>
+      </c>
       <c r="D191">
         <v>3</v>
       </c>
@@ -2600,10 +3694,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>1900</v>
       </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>11</v>
+      </c>
       <c r="D192">
         <v>3</v>
       </c>
@@ -2611,10 +3711,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>1910</v>
       </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>11</v>
+      </c>
       <c r="D193">
         <v>3</v>
       </c>
@@ -2622,10 +3728,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>1920</v>
       </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>11</v>
+      </c>
       <c r="D194">
         <v>3</v>
       </c>
@@ -2633,10 +3745,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>1930</v>
       </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>11</v>
+      </c>
       <c r="D195">
         <v>3</v>
       </c>
@@ -2644,10 +3762,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>1940</v>
       </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>11</v>
+      </c>
       <c r="D196">
         <v>3</v>
       </c>
@@ -2655,10 +3779,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>1950</v>
       </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>11</v>
+      </c>
       <c r="D197">
         <v>3</v>
       </c>
@@ -2666,10 +3796,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>1960</v>
       </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>11</v>
+      </c>
       <c r="D198">
         <v>3</v>
       </c>
@@ -2677,12 +3813,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>1970</v>
       </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
       <c r="C199" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D199">
         <v>3</v>
@@ -2691,12 +3830,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>1980</v>
       </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D200">
         <v>3</v>
@@ -2705,15 +3847,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>1990</v>
       </c>
       <c r="B201" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D201">
         <v>3</v>
@@ -2722,12 +3864,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>2000</v>
       </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
       <c r="C202" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D202">
         <v>3</v>
@@ -2736,12 +3881,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>2010</v>
       </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
       <c r="C203" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D203">
         <v>3</v>
@@ -2750,12 +3898,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>2020</v>
       </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
       <c r="C204" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D204">
         <v>3</v>
@@ -2764,10 +3915,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>2030</v>
       </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>11</v>
+      </c>
       <c r="D205">
         <v>3</v>
       </c>
@@ -2775,10 +3932,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>2040</v>
       </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>11</v>
+      </c>
       <c r="D206">
         <v>3</v>
       </c>
@@ -2786,10 +3949,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>2050</v>
       </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>11</v>
+      </c>
       <c r="D207">
         <v>3</v>
       </c>
@@ -2797,10 +3966,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>2060</v>
       </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>11</v>
+      </c>
       <c r="D208">
         <v>3</v>
       </c>
@@ -2808,10 +3983,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>2070</v>
       </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>11</v>
+      </c>
       <c r="D209">
         <v>3</v>
       </c>
@@ -2819,10 +4000,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>2080</v>
       </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>11</v>
+      </c>
       <c r="D210">
         <v>3</v>
       </c>
@@ -2830,10 +4017,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>2090</v>
       </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>11</v>
+      </c>
       <c r="D211">
         <v>3</v>
       </c>
@@ -2841,10 +4034,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>2100</v>
       </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>11</v>
+      </c>
       <c r="D212">
         <v>3</v>
       </c>
@@ -2852,10 +4051,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>2110</v>
       </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>11</v>
+      </c>
       <c r="D213">
         <v>3</v>
       </c>
@@ -2863,10 +4068,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>2120</v>
       </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>11</v>
+      </c>
       <c r="D214">
         <v>3</v>
       </c>
@@ -2874,10 +4085,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>2130</v>
       </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>11</v>
+      </c>
       <c r="D215">
         <v>3</v>
       </c>
@@ -2885,10 +4102,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>2140</v>
       </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>11</v>
+      </c>
       <c r="D216">
         <v>3</v>
       </c>
@@ -2896,10 +4119,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>2150</v>
       </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>11</v>
+      </c>
       <c r="D217">
         <v>3</v>
       </c>
@@ -2907,10 +4136,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>2160</v>
       </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>11</v>
+      </c>
       <c r="D218">
         <v>3</v>
       </c>
@@ -2918,10 +4153,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>2170</v>
       </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>11</v>
+      </c>
       <c r="D219">
         <v>3</v>
       </c>
@@ -2929,12 +4170,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>2180</v>
       </c>
       <c r="B220" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
       </c>
       <c r="D220">
         <v>4</v>
@@ -2943,10 +4187,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>2190</v>
       </c>
+      <c r="B221" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" t="s">
+        <v>10</v>
+      </c>
       <c r="D221">
         <v>4</v>
       </c>
@@ -2954,10 +4204,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>2200</v>
       </c>
+      <c r="B222" t="s">
+        <v>10</v>
+      </c>
+      <c r="C222" t="s">
+        <v>10</v>
+      </c>
       <c r="D222">
         <v>4</v>
       </c>
@@ -2965,10 +4221,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>2210</v>
       </c>
+      <c r="B223" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
       <c r="D223">
         <v>4</v>
       </c>
@@ -2976,10 +4238,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>2220</v>
       </c>
+      <c r="B224" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
       <c r="D224">
         <v>4</v>
       </c>
@@ -2987,10 +4255,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>2230</v>
       </c>
+      <c r="B225" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" t="s">
+        <v>10</v>
+      </c>
       <c r="D225">
         <v>4</v>
       </c>
@@ -2998,10 +4272,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>2240</v>
       </c>
+      <c r="B226" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
       <c r="D226">
         <v>4</v>
       </c>
@@ -3009,10 +4289,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>2250</v>
       </c>
+      <c r="B227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
       <c r="D227">
         <v>4</v>
       </c>
@@ -3020,10 +4306,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>2260</v>
       </c>
+      <c r="B228" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" t="s">
+        <v>10</v>
+      </c>
       <c r="D228">
         <v>4</v>
       </c>
@@ -3031,10 +4323,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>2270</v>
       </c>
+      <c r="B229" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" t="s">
+        <v>10</v>
+      </c>
       <c r="D229">
         <v>4</v>
       </c>
@@ -3042,10 +4340,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>2280</v>
       </c>
+      <c r="B230" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" t="s">
+        <v>10</v>
+      </c>
       <c r="D230">
         <v>4</v>
       </c>
@@ -3053,10 +4357,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>2290</v>
       </c>
+      <c r="B231" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" t="s">
+        <v>10</v>
+      </c>
       <c r="D231">
         <v>4</v>
       </c>
@@ -3064,10 +4374,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>2300</v>
       </c>
+      <c r="B232" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" t="s">
+        <v>10</v>
+      </c>
       <c r="D232">
         <v>4</v>
       </c>
@@ -3075,10 +4391,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>2310</v>
       </c>
+      <c r="B233" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" t="s">
+        <v>10</v>
+      </c>
       <c r="D233">
         <v>4</v>
       </c>
@@ -3086,10 +4408,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>2320</v>
       </c>
+      <c r="B234" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" t="s">
+        <v>10</v>
+      </c>
       <c r="D234">
         <v>4</v>
       </c>
@@ -3097,10 +4425,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>2330</v>
       </c>
+      <c r="B235" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" t="s">
+        <v>10</v>
+      </c>
       <c r="D235">
         <v>4</v>
       </c>
@@ -3108,10 +4442,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>2340</v>
       </c>
+      <c r="B236" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" t="s">
+        <v>10</v>
+      </c>
       <c r="D236">
         <v>5</v>
       </c>
@@ -3119,10 +4459,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>2350</v>
       </c>
+      <c r="B237" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" t="s">
+        <v>10</v>
+      </c>
       <c r="D237">
         <v>5</v>
       </c>
@@ -3130,10 +4476,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>2360</v>
       </c>
+      <c r="B238" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" t="s">
+        <v>10</v>
+      </c>
       <c r="D238">
         <v>5</v>
       </c>
@@ -3141,10 +4493,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>2370</v>
       </c>
+      <c r="B239" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" t="s">
+        <v>10</v>
+      </c>
       <c r="D239">
         <v>5</v>
       </c>
@@ -3152,10 +4510,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>2380</v>
       </c>
+      <c r="B240" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" t="s">
+        <v>10</v>
+      </c>
       <c r="D240">
         <v>5</v>
       </c>
@@ -3163,10 +4527,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>2390</v>
       </c>
+      <c r="B241" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" t="s">
+        <v>10</v>
+      </c>
       <c r="D241">
         <v>5</v>
       </c>
@@ -3174,10 +4544,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>2400</v>
       </c>
+      <c r="B242" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" t="s">
+        <v>10</v>
+      </c>
       <c r="D242">
         <v>4</v>
       </c>
@@ -3185,10 +4561,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>2410</v>
       </c>
+      <c r="B243" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" t="s">
+        <v>10</v>
+      </c>
       <c r="D243">
         <v>5</v>
       </c>
@@ -3196,10 +4578,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>2420</v>
       </c>
+      <c r="B244" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" t="s">
+        <v>10</v>
+      </c>
       <c r="D244">
         <v>5</v>
       </c>
@@ -3207,10 +4595,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>2430</v>
       </c>
+      <c r="B245" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" t="s">
+        <v>10</v>
+      </c>
       <c r="D245">
         <v>5</v>
       </c>
@@ -3218,10 +4612,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>2440</v>
       </c>
+      <c r="B246" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" t="s">
+        <v>10</v>
+      </c>
       <c r="D246">
         <v>5</v>
       </c>
@@ -3229,10 +4629,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>2450</v>
       </c>
+      <c r="B247" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" t="s">
+        <v>10</v>
+      </c>
       <c r="D247">
         <v>5</v>
       </c>
@@ -3240,10 +4646,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>2460</v>
       </c>
+      <c r="B248" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" t="s">
+        <v>10</v>
+      </c>
       <c r="D248">
         <v>5</v>
       </c>
@@ -3251,10 +4663,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>2470</v>
       </c>
+      <c r="B249" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249" t="s">
+        <v>10</v>
+      </c>
       <c r="D249">
         <v>5</v>
       </c>
@@ -3262,10 +4680,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>2480</v>
       </c>
+      <c r="B250" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" t="s">
+        <v>10</v>
+      </c>
       <c r="D250">
         <v>5</v>
       </c>
@@ -3273,10 +4697,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>2490</v>
       </c>
+      <c r="B251" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" t="s">
+        <v>10</v>
+      </c>
       <c r="D251">
         <v>5</v>
       </c>
@@ -3284,10 +4714,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>2500</v>
       </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>10</v>
+      </c>
       <c r="D252">
         <v>5</v>
       </c>
@@ -3295,10 +4731,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>2510</v>
       </c>
+      <c r="B253" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253" t="s">
+        <v>10</v>
+      </c>
       <c r="D253">
         <v>5</v>
       </c>
@@ -3306,10 +4748,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>2520</v>
       </c>
+      <c r="B254" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
       <c r="D254">
         <v>5</v>
       </c>
@@ -3317,10 +4765,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>2530</v>
       </c>
+      <c r="B255" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" t="s">
+        <v>10</v>
+      </c>
       <c r="D255">
         <v>5</v>
       </c>
@@ -3328,10 +4782,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>2540</v>
       </c>
+      <c r="B256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" t="s">
+        <v>10</v>
+      </c>
       <c r="D256">
         <v>5</v>
       </c>
@@ -3339,10 +4799,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>2550</v>
       </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
       <c r="D257">
         <v>4</v>
       </c>
@@ -3350,10 +4816,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>2560</v>
       </c>
+      <c r="B258" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" t="s">
+        <v>10</v>
+      </c>
       <c r="D258">
         <v>5</v>
       </c>
@@ -3361,10 +4833,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>2570</v>
       </c>
+      <c r="B259" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259" t="s">
+        <v>10</v>
+      </c>
       <c r="D259">
         <v>3</v>
       </c>
@@ -3372,10 +4850,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>2580</v>
       </c>
+      <c r="B260" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" t="s">
+        <v>10</v>
+      </c>
       <c r="D260">
         <v>4</v>
       </c>
@@ -3383,10 +4867,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>2590</v>
       </c>
+      <c r="B261" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" t="s">
+        <v>10</v>
+      </c>
       <c r="D261">
         <v>5</v>
       </c>
@@ -3394,10 +4884,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>2600</v>
       </c>
+      <c r="B262" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" t="s">
+        <v>10</v>
+      </c>
       <c r="D262">
         <v>4</v>
       </c>
@@ -3405,10 +4901,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>2610</v>
       </c>
+      <c r="B263" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" t="s">
+        <v>10</v>
+      </c>
       <c r="D263">
         <v>4</v>
       </c>
@@ -3416,12 +4918,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>2620</v>
       </c>
       <c r="B264" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>11</v>
       </c>
       <c r="D264">
         <v>3</v>
@@ -3430,10 +4935,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>2630</v>
       </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>11</v>
+      </c>
       <c r="D265">
         <v>3</v>
       </c>
@@ -3441,10 +4952,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>2640</v>
       </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>11</v>
+      </c>
       <c r="D266">
         <v>3</v>
       </c>
@@ -3452,10 +4969,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>2650</v>
       </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>11</v>
+      </c>
       <c r="D267">
         <v>3</v>
       </c>
@@ -3463,10 +4986,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>2660</v>
       </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>11</v>
+      </c>
       <c r="D268">
         <v>3</v>
       </c>
@@ -3474,10 +5003,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>2670</v>
       </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>11</v>
+      </c>
       <c r="D269">
         <v>3</v>
       </c>
@@ -3485,10 +5020,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>2680</v>
       </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>11</v>
+      </c>
       <c r="D270">
         <v>3</v>
       </c>
@@ -3496,10 +5037,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>2690</v>
       </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>11</v>
+      </c>
       <c r="D271">
         <v>3</v>
       </c>
@@ -3507,10 +5054,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>2700</v>
       </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>11</v>
+      </c>
       <c r="D272">
         <v>3</v>
       </c>
@@ -3518,10 +5071,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>2710</v>
       </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>11</v>
+      </c>
       <c r="D273">
         <v>3</v>
       </c>
@@ -3529,10 +5088,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>2720</v>
       </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>11</v>
+      </c>
       <c r="D274">
         <v>3</v>
       </c>
@@ -3540,10 +5105,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>2730</v>
       </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>11</v>
+      </c>
       <c r="D275">
         <v>3</v>
       </c>
@@ -3551,10 +5122,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>2740</v>
       </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>11</v>
+      </c>
       <c r="D276">
         <v>3</v>
       </c>
@@ -3562,10 +5139,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>2750</v>
       </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>11</v>
+      </c>
       <c r="D277">
         <v>3</v>
       </c>
@@ -3573,10 +5156,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>2760</v>
       </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>11</v>
+      </c>
       <c r="D278">
         <v>3</v>
       </c>
@@ -3584,12 +5173,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>2770</v>
       </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
       <c r="C279" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D279">
         <v>3</v>
@@ -3598,12 +5190,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>2780</v>
       </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
       <c r="C280" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D280">
         <v>3</v>
@@ -3612,12 +5207,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>2790</v>
       </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
       <c r="C281" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D281">
         <v>3</v>
@@ -3626,12 +5224,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>2800</v>
       </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
       <c r="C282" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D282">
         <v>3</v>
@@ -3640,10 +5241,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>2810</v>
       </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>11</v>
+      </c>
       <c r="D283">
         <v>3</v>
       </c>
@@ -3651,10 +5258,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>2820</v>
       </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>11</v>
+      </c>
       <c r="D284">
         <v>3</v>
       </c>
@@ -3662,10 +5275,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>2830</v>
       </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>11</v>
+      </c>
       <c r="D285">
         <v>3</v>
       </c>
@@ -3673,10 +5292,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>2840</v>
       </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>11</v>
+      </c>
       <c r="D286">
         <v>3</v>
       </c>
@@ -3684,10 +5309,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>2850</v>
       </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>11</v>
+      </c>
       <c r="D287">
         <v>3</v>
       </c>
@@ -3695,10 +5326,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>2860</v>
       </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>11</v>
+      </c>
       <c r="D288">
         <v>3</v>
       </c>
@@ -3706,10 +5343,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>2870</v>
       </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>11</v>
+      </c>
       <c r="D289">
         <v>3</v>
       </c>
@@ -3717,10 +5360,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>2880</v>
       </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>11</v>
+      </c>
       <c r="D290">
         <v>3</v>
       </c>
@@ -3728,10 +5377,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>2890</v>
       </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>11</v>
+      </c>
       <c r="D291">
         <v>3</v>
       </c>
@@ -3739,10 +5394,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>2900</v>
       </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>11</v>
+      </c>
       <c r="D292">
         <v>3</v>
       </c>
@@ -3750,10 +5411,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>2910</v>
       </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>11</v>
+      </c>
       <c r="D293">
         <v>3</v>
       </c>
@@ -3761,10 +5428,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>2920</v>
       </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>11</v>
+      </c>
       <c r="D294">
         <v>3</v>
       </c>
@@ -3772,10 +5445,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>2930</v>
       </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>11</v>
+      </c>
       <c r="D295">
         <v>3</v>
       </c>
@@ -3783,10 +5462,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>2940</v>
       </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>11</v>
+      </c>
       <c r="D296">
         <v>3</v>
       </c>
@@ -3794,10 +5479,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>2950</v>
       </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>11</v>
+      </c>
       <c r="D297">
         <v>3</v>
       </c>
@@ -3805,10 +5496,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>2960</v>
       </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>11</v>
+      </c>
       <c r="D298">
         <v>3</v>
       </c>
@@ -3816,10 +5513,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>2970</v>
       </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>11</v>
+      </c>
       <c r="D299">
         <v>3</v>
       </c>
@@ -3827,10 +5530,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>2980</v>
       </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>11</v>
+      </c>
       <c r="D300">
         <v>3</v>
       </c>
@@ -3838,10 +5547,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>2990</v>
       </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>11</v>
+      </c>
       <c r="D301">
         <v>3</v>
       </c>
@@ -3849,10 +5564,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>3000</v>
       </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>11</v>
+      </c>
       <c r="D302">
         <v>3</v>
       </c>
@@ -3860,12 +5581,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>3010</v>
       </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
       <c r="C303" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D303">
         <v>3</v>
@@ -3874,12 +5598,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>3020</v>
       </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
       <c r="C304" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D304">
         <v>3</v>
@@ -3888,12 +5615,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>3030</v>
       </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
       <c r="C305" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D305">
         <v>3</v>
@@ -3902,10 +5632,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>3040</v>
       </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>17</v>
+      </c>
       <c r="D306">
         <v>3</v>
       </c>
@@ -3913,10 +5649,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>3050</v>
       </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>17</v>
+      </c>
       <c r="D307">
         <v>3</v>
       </c>
@@ -3924,12 +5666,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>3060</v>
       </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
       <c r="C308" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D308">
         <v>3</v>
@@ -3938,12 +5683,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>3070</v>
       </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
       <c r="C309" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D309">
         <v>3</v>
@@ -3952,12 +5700,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>3080</v>
       </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
       <c r="C310" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D310">
         <v>3</v>
@@ -3966,12 +5717,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>3090</v>
       </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
       <c r="C311" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D311">
         <v>3</v>
@@ -3980,12 +5734,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>3100</v>
       </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
       <c r="C312" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D312">
         <v>3</v>
@@ -3994,12 +5751,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>3110</v>
       </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
       <c r="C313" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D313">
         <v>3</v>
@@ -4008,12 +5768,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>3120</v>
       </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
       <c r="C314" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D314">
         <v>3</v>
@@ -4022,10 +5785,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>3130</v>
       </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>11</v>
+      </c>
       <c r="D315">
         <v>3</v>
       </c>
@@ -4033,10 +5802,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>3140</v>
       </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>11</v>
+      </c>
       <c r="D316">
         <v>3</v>
       </c>
@@ -4044,10 +5819,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>3150</v>
       </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>11</v>
+      </c>
       <c r="D317">
         <v>3</v>
       </c>
@@ -4055,10 +5836,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>3160</v>
       </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>11</v>
+      </c>
       <c r="D318">
         <v>3</v>
       </c>
@@ -4066,10 +5853,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>3170</v>
       </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>11</v>
+      </c>
       <c r="D319">
         <v>3</v>
       </c>
@@ -4077,10 +5870,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>3180</v>
       </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>11</v>
+      </c>
       <c r="D320">
         <v>3</v>
       </c>
@@ -4088,10 +5887,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>3190</v>
       </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>11</v>
+      </c>
       <c r="D321">
         <v>3</v>
       </c>
@@ -4099,10 +5904,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>3200</v>
       </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>11</v>
+      </c>
       <c r="D322">
         <v>3</v>
       </c>
@@ -4110,10 +5921,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>3210</v>
       </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" t="s">
+        <v>11</v>
+      </c>
       <c r="D323">
         <v>3</v>
       </c>
@@ -4121,10 +5938,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>3220</v>
       </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>11</v>
+      </c>
       <c r="D324">
         <v>3</v>
       </c>
@@ -4132,10 +5955,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>3230</v>
       </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" t="s">
+        <v>11</v>
+      </c>
       <c r="D325">
         <v>3</v>
       </c>
@@ -4143,10 +5972,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>3240</v>
       </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" t="s">
+        <v>11</v>
+      </c>
       <c r="D326">
         <v>3</v>
       </c>
@@ -4154,10 +5989,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>3250</v>
       </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s">
+        <v>11</v>
+      </c>
       <c r="D327">
         <v>3</v>
       </c>
@@ -4165,10 +6006,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>3260</v>
       </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>11</v>
+      </c>
       <c r="D328">
         <v>3</v>
       </c>
@@ -4176,10 +6023,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>3270</v>
       </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>11</v>
+      </c>
       <c r="D329">
         <v>3</v>
       </c>
@@ -4187,10 +6040,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>3280</v>
       </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" t="s">
+        <v>11</v>
+      </c>
       <c r="D330">
         <v>3</v>
       </c>
@@ -4198,10 +6057,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>3290</v>
       </c>
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>11</v>
+      </c>
       <c r="D331">
         <v>3</v>
       </c>
@@ -4209,10 +6074,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>3300</v>
       </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>11</v>
+      </c>
       <c r="D332">
         <v>3</v>
       </c>
@@ -4220,10 +6091,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>3310</v>
       </c>
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" t="s">
+        <v>11</v>
+      </c>
       <c r="D333">
         <v>3</v>
       </c>
@@ -4231,10 +6108,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>3320</v>
       </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334" t="s">
+        <v>11</v>
+      </c>
       <c r="D334">
         <v>3</v>
       </c>
@@ -4242,10 +6125,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>3330</v>
       </c>
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" t="s">
+        <v>11</v>
+      </c>
       <c r="D335">
         <v>3</v>
       </c>
@@ -4253,10 +6142,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>3340</v>
       </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>11</v>
+      </c>
       <c r="D336">
         <v>3</v>
       </c>
@@ -4264,10 +6159,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>3350</v>
       </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" t="s">
+        <v>11</v>
+      </c>
       <c r="D337">
         <v>3</v>
       </c>
@@ -4275,10 +6176,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>3360</v>
       </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>11</v>
+      </c>
       <c r="D338">
         <v>3</v>
       </c>
@@ -4286,10 +6193,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>3370</v>
       </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" t="s">
+        <v>11</v>
+      </c>
       <c r="D339">
         <v>3</v>
       </c>
@@ -4297,10 +6210,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>3380</v>
       </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>11</v>
+      </c>
       <c r="D340">
         <v>3</v>
       </c>
@@ -4308,10 +6227,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>3390</v>
       </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>11</v>
+      </c>
       <c r="D341">
         <v>3</v>
       </c>
@@ -4319,10 +6244,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>3400</v>
       </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>11</v>
+      </c>
       <c r="D342">
         <v>3</v>
       </c>
@@ -4330,10 +6261,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>3410</v>
       </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>11</v>
+      </c>
       <c r="D343">
         <v>3</v>
       </c>
@@ -4341,10 +6278,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>3420</v>
       </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" t="s">
+        <v>11</v>
+      </c>
       <c r="D344">
         <v>3</v>
       </c>
@@ -4352,10 +6295,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>3430</v>
       </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345" t="s">
+        <v>11</v>
+      </c>
       <c r="D345">
         <v>3</v>
       </c>
@@ -4363,10 +6312,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>3440</v>
       </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" t="s">
+        <v>11</v>
+      </c>
       <c r="D346">
         <v>3</v>
       </c>
@@ -4374,10 +6329,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>3450</v>
       </c>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>11</v>
+      </c>
       <c r="D347">
         <v>3</v>
       </c>
@@ -4385,10 +6346,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>3460</v>
       </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>11</v>
+      </c>
       <c r="D348">
         <v>3</v>
       </c>
@@ -4396,10 +6363,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>3470</v>
       </c>
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349" t="s">
+        <v>11</v>
+      </c>
       <c r="D349">
         <v>3</v>
       </c>
@@ -4407,10 +6380,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>3480</v>
       </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>11</v>
+      </c>
       <c r="D350">
         <v>3</v>
       </c>
@@ -4418,10 +6397,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>3490</v>
       </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>11</v>
+      </c>
       <c r="D351">
         <v>3</v>
       </c>
@@ -4429,12 +6414,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>3500</v>
       </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
       <c r="C352" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D352">
         <v>3</v>
@@ -4443,12 +6431,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>3510</v>
       </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
       <c r="C353" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D353">
         <v>3</v>
@@ -4457,12 +6448,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>3520</v>
       </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
       <c r="C354" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D354">
         <v>3</v>
@@ -4471,12 +6465,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>3530</v>
       </c>
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
       <c r="C355" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D355">
         <v>3</v>
@@ -4485,10 +6482,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>3540</v>
       </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>11</v>
+      </c>
       <c r="D356">
         <v>3</v>
       </c>
@@ -4496,10 +6499,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>3550</v>
       </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>11</v>
+      </c>
       <c r="D357">
         <v>3</v>
       </c>
@@ -4507,10 +6516,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>3560</v>
       </c>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" t="s">
+        <v>11</v>
+      </c>
       <c r="D358">
         <v>3</v>
       </c>
@@ -4518,10 +6533,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>3570</v>
       </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>11</v>
+      </c>
       <c r="D359">
         <v>3</v>
       </c>
@@ -4529,10 +6550,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>3580</v>
       </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>11</v>
+      </c>
       <c r="D360">
         <v>3</v>
       </c>
@@ -4540,10 +6567,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>3590</v>
       </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" t="s">
+        <v>11</v>
+      </c>
       <c r="D361">
         <v>3</v>
       </c>
@@ -4551,10 +6584,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>3600</v>
       </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" t="s">
+        <v>11</v>
+      </c>
       <c r="D362">
         <v>3</v>
       </c>
@@ -4562,12 +6601,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>3610</v>
       </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
       <c r="C363" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D363">
         <v>4</v>
@@ -4576,10 +6618,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>3620</v>
       </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>11</v>
+      </c>
       <c r="D364">
         <v>3</v>
       </c>
@@ -4587,10 +6635,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>3630</v>
       </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" t="s">
+        <v>11</v>
+      </c>
       <c r="D365">
         <v>3</v>
       </c>
@@ -4598,10 +6652,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>3640</v>
       </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" t="s">
+        <v>11</v>
+      </c>
       <c r="D366">
         <v>3</v>
       </c>
@@ -4609,10 +6669,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>3650</v>
       </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" t="s">
+        <v>11</v>
+      </c>
       <c r="D367">
         <v>3</v>
       </c>
@@ -4620,10 +6686,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>3660</v>
       </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>11</v>
+      </c>
       <c r="D368">
         <v>3</v>
       </c>
@@ -4631,10 +6703,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>3670</v>
       </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" t="s">
+        <v>11</v>
+      </c>
       <c r="D369">
         <v>3</v>
       </c>
@@ -4642,12 +6720,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>3680</v>
       </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
       <c r="C370" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D370">
         <v>3</v>
@@ -4656,12 +6737,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>3690</v>
       </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
       <c r="C371" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D371">
         <v>3</v>
@@ -4670,10 +6754,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>3700</v>
       </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" t="s">
+        <v>11</v>
+      </c>
       <c r="D372">
         <v>3</v>
       </c>
@@ -4681,10 +6771,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>3710</v>
       </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" t="s">
+        <v>11</v>
+      </c>
       <c r="D373">
         <v>3</v>
       </c>
@@ -4692,10 +6788,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>3720</v>
       </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" t="s">
+        <v>11</v>
+      </c>
       <c r="D374">
         <v>3</v>
       </c>
@@ -4703,10 +6805,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>3730</v>
       </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375" t="s">
+        <v>11</v>
+      </c>
       <c r="D375">
         <v>3</v>
       </c>
@@ -4714,10 +6822,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>3740</v>
       </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" t="s">
+        <v>11</v>
+      </c>
       <c r="D376">
         <v>3</v>
       </c>
@@ -4725,10 +6839,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>3750</v>
       </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" t="s">
+        <v>11</v>
+      </c>
       <c r="D377">
         <v>3</v>
       </c>
@@ -4736,10 +6856,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>3760</v>
       </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" t="s">
+        <v>11</v>
+      </c>
       <c r="D378">
         <v>3</v>
       </c>
@@ -4747,10 +6873,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>3770</v>
       </c>
+      <c r="B379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379" t="s">
+        <v>11</v>
+      </c>
       <c r="D379">
         <v>3</v>
       </c>
@@ -4758,10 +6890,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>3780</v>
       </c>
+      <c r="B380" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" t="s">
+        <v>11</v>
+      </c>
       <c r="D380">
         <v>3</v>
       </c>
@@ -4769,10 +6907,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>3790</v>
       </c>
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" t="s">
+        <v>11</v>
+      </c>
       <c r="D381">
         <v>3</v>
       </c>
@@ -4780,10 +6924,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>3800</v>
       </c>
+      <c r="B382" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>11</v>
+      </c>
       <c r="D382">
         <v>3</v>
       </c>
@@ -4791,10 +6941,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>3810</v>
       </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" t="s">
+        <v>11</v>
+      </c>
       <c r="D383">
         <v>3</v>
       </c>
@@ -4802,10 +6958,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>3820</v>
       </c>
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384" t="s">
+        <v>11</v>
+      </c>
       <c r="D384">
         <v>3</v>
       </c>
@@ -4813,10 +6975,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>3830</v>
       </c>
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" t="s">
+        <v>11</v>
+      </c>
       <c r="D385">
         <v>3</v>
       </c>
@@ -4824,10 +6992,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>3840</v>
       </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" t="s">
+        <v>11</v>
+      </c>
       <c r="D386">
         <v>3</v>
       </c>
@@ -4835,12 +7009,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>3850</v>
       </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
       <c r="C387" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D387">
         <v>3</v>
@@ -4849,12 +7026,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>3860</v>
       </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
       <c r="C388" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D388">
         <v>3</v>
@@ -4863,12 +7043,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>3870</v>
       </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
       <c r="C389" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D389">
         <v>3</v>
@@ -4877,12 +7060,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>3880</v>
       </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
       <c r="C390" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D390">
         <v>3</v>
@@ -4891,12 +7077,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>3890</v>
       </c>
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
       <c r="C391" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D391">
         <v>3</v>
@@ -4905,12 +7094,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>3900</v>
       </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
       <c r="C392" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D392">
         <v>3</v>
@@ -4919,12 +7111,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>3910</v>
       </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
       <c r="C393" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D393">
         <v>3</v>
@@ -4933,10 +7128,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>3920</v>
       </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>15</v>
+      </c>
       <c r="D394">
         <v>3</v>
       </c>
@@ -4944,12 +7145,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>3930</v>
       </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
       <c r="C395" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D395">
         <v>3</v>
@@ -4958,12 +7162,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>3940</v>
       </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
       <c r="C396" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D396">
         <v>3</v>
@@ -4972,12 +7179,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>3950</v>
       </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
       <c r="C397" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D397">
         <v>3</v>
@@ -4986,10 +7196,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>3960</v>
       </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" t="s">
+        <v>17</v>
+      </c>
       <c r="D398">
         <v>3</v>
       </c>
@@ -4997,10 +7213,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>3970</v>
       </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399" t="s">
+        <v>17</v>
+      </c>
       <c r="D399">
         <v>3</v>
       </c>
@@ -5008,12 +7230,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>3980</v>
       </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
       <c r="C400" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D400">
         <v>3</v>
@@ -5022,10 +7247,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>3990</v>
       </c>
+      <c r="B401" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401" t="s">
+        <v>11</v>
+      </c>
       <c r="D401">
         <v>3</v>
       </c>
@@ -5033,10 +7264,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>4000</v>
       </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>11</v>
+      </c>
       <c r="D402">
         <v>3</v>
       </c>
@@ -5044,10 +7281,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>4010</v>
       </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>11</v>
+      </c>
       <c r="D403">
         <v>3</v>
       </c>
@@ -5055,10 +7298,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>4020</v>
       </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>11</v>
+      </c>
       <c r="D404">
         <v>3</v>
       </c>
@@ -5066,10 +7315,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>4030</v>
       </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>11</v>
+      </c>
       <c r="D405">
         <v>3</v>
       </c>
@@ -5077,10 +7332,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>4040</v>
       </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>11</v>
+      </c>
       <c r="D406">
         <v>3</v>
       </c>
@@ -5088,10 +7349,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>4050</v>
       </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" t="s">
+        <v>11</v>
+      </c>
       <c r="D407">
         <v>3</v>
       </c>
@@ -5099,10 +7366,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>4060</v>
       </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408" t="s">
+        <v>11</v>
+      </c>
       <c r="D408">
         <v>3</v>
       </c>
@@ -5110,10 +7383,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>4070</v>
       </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409" t="s">
+        <v>11</v>
+      </c>
       <c r="D409">
         <v>3</v>
       </c>
@@ -5121,10 +7400,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>4080</v>
       </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C410" t="s">
+        <v>11</v>
+      </c>
       <c r="D410">
         <v>3</v>
       </c>
@@ -5132,10 +7417,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>4090</v>
       </c>
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411" t="s">
+        <v>11</v>
+      </c>
       <c r="D411">
         <v>3</v>
       </c>
@@ -5143,10 +7434,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>4100</v>
       </c>
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+      <c r="C412" t="s">
+        <v>11</v>
+      </c>
       <c r="D412">
         <v>3</v>
       </c>
@@ -5154,10 +7451,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>4110</v>
       </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>11</v>
+      </c>
       <c r="D413">
         <v>3</v>
       </c>
@@ -5165,10 +7468,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>4120</v>
       </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>11</v>
+      </c>
       <c r="D414">
         <v>3</v>
       </c>
@@ -5176,12 +7485,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>4130</v>
       </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
       <c r="C415" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D415">
         <v>3</v>
@@ -5190,10 +7502,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>4140</v>
       </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>15</v>
+      </c>
       <c r="D416">
         <v>3</v>
       </c>
@@ -5201,12 +7519,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>4150</v>
       </c>
       <c r="B417" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="C417" t="s">
+        <v>11</v>
       </c>
       <c r="D417">
         <v>4</v>
